--- a/Lab8/Matrix_weights.xlsx
+++ b/Lab8/Matrix_weights.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschafrey/Documents/EPFL/MA2/Motor Control/CMC2019/Lab8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71054410-58CB-F845-9E95-B85898506F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266E345-1699-134F-B7CC-90F626B85F1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="820" windowWidth="27640" windowHeight="16940" xr2:uid="{490853F4-AABB-DF40-8BCD-056CA75CDC95}"/>
+    <workbookView xWindow="7400" yWindow="2160" windowWidth="27640" windowHeight="16940" xr2:uid="{490853F4-AABB-DF40-8BCD-056CA75CDC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,10 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -45,12 +41,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7645C3-9E4F-FF4B-8294-035D740DB257}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="34" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,35 +639,35 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="A11" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11">
@@ -676,13 +679,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -696,16 +707,23 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="L13">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -719,19 +737,25 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="M14">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -745,19 +769,25 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="N15">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -771,25 +801,29 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="O16">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -803,25 +837,29 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="P17">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -835,28 +873,31 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="Q18">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -870,34 +911,35 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>PI()*2/8</f>
-        <v>0.78539816339744828</v>
-      </c>
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>PI()*2/8</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="R19">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -911,34 +953,34 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <f>PI()*2/8</f>
         <v>0.78539816339744828</v>
       </c>
